--- a/Empirical Application/Estimates/emp_app_nn_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_nn_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>42.92727537928081</v>
+        <v>43.02567001129168</v>
       </c>
       <c r="D2">
-        <v>1.385011599751955</v>
+        <v>1.416830200695417</v>
       </c>
       <c r="E2">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F2">
         <v>548.5188786062398</v>
       </c>
       <c r="H2">
-        <v>0.003992379671688344</v>
+        <v>0.004084098712605395</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>43.53280777884633</v>
+        <v>43.57763976934167</v>
       </c>
       <c r="D3">
-        <v>1.341848205601431</v>
+        <v>1.414555854151215</v>
       </c>
       <c r="E3">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F3">
         <v>548.5188786062398</v>
       </c>
       <c r="H3">
-        <v>0.00386795857846538</v>
+        <v>0.00407754277118868</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>44.08297493533929</v>
+        <v>43.73121637596176</v>
       </c>
       <c r="D4">
-        <v>1.351630022156922</v>
+        <v>1.404513183589426</v>
       </c>
       <c r="E4">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F4">
         <v>548.5188786062398</v>
       </c>
       <c r="H4">
-        <v>0.003896155256078276</v>
+        <v>0.004048594166131848</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.29656142038816</v>
+        <v>44.34770734767049</v>
       </c>
       <c r="D5">
-        <v>1.333817712621516</v>
+        <v>1.392664980193563</v>
       </c>
       <c r="E5">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F5">
         <v>548.5188786062398</v>
       </c>
       <c r="H5">
-        <v>0.003844810196941074</v>
+        <v>0.004014441003521409</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>44.70864335876464</v>
+        <v>44.66994704274317</v>
       </c>
       <c r="D6">
-        <v>1.308268247600351</v>
+        <v>1.37067605835391</v>
       </c>
       <c r="E6">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F6">
         <v>548.5188786062398</v>
       </c>
       <c r="G6">
-        <v>0.01113354987177395</v>
+        <v>0.0102767314465718</v>
       </c>
       <c r="H6">
-        <v>0.003771162319341147</v>
+        <v>0.003951056606906467</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>44.91815060811457</v>
+        <v>44.85103422470556</v>
       </c>
       <c r="D7">
-        <v>1.282303438476544</v>
+        <v>1.343877274170904</v>
       </c>
       <c r="E7">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F7">
         <v>548.5188786062398</v>
       </c>
       <c r="G7">
-        <v>0.008658392682926497</v>
+        <v>0.00795871534602428</v>
       </c>
       <c r="H7">
-        <v>0.003696317187254368</v>
+        <v>0.003873807491290859</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.10683351682297</v>
+        <v>45.27274374398786</v>
       </c>
       <c r="D8">
-        <v>1.271248198544468</v>
+        <v>1.325166491710889</v>
       </c>
       <c r="E8">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F8">
         <v>548.5188786062398</v>
       </c>
       <c r="G8">
-        <v>0.006399116134272997</v>
+        <v>0.00963454605016314</v>
       </c>
       <c r="H8">
-        <v>0.003664449789769493</v>
+        <v>0.003819872529628354</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.58631808191875</v>
+        <v>45.75759639378439</v>
       </c>
       <c r="D9">
-        <v>1.239125851946596</v>
+        <v>1.300385315752265</v>
       </c>
       <c r="E9">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F9">
         <v>548.5188786062398</v>
       </c>
       <c r="G9">
-        <v>0.008060979134566182</v>
+        <v>0.008811806538211852</v>
       </c>
       <c r="H9">
-        <v>0.003571855183639668</v>
+        <v>0.003748439291700627</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>46.02946034324459</v>
+        <v>46.00671861885739</v>
       </c>
       <c r="D10">
-        <v>1.212305168146075</v>
+        <v>1.276318835977166</v>
       </c>
       <c r="E10">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F10">
         <v>548.5188786062398</v>
       </c>
       <c r="G10">
-        <v>0.00825510615299967</v>
+        <v>0.008354822350713897</v>
       </c>
       <c r="H10">
-        <v>0.003494542941052561</v>
+        <v>0.003679066208731205</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>46.44591288398887</v>
+        <v>46.67189359285457</v>
       </c>
       <c r="D11">
-        <v>1.181135383504224</v>
+        <v>1.235226166869251</v>
       </c>
       <c r="E11">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F11">
         <v>548.5188786062398</v>
       </c>
       <c r="G11">
-        <v>0.009548514224214344</v>
+        <v>0.01138037105093135</v>
       </c>
       <c r="H11">
-        <v>0.003404694152351213</v>
+        <v>0.003560614105636014</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>46.92267096384519</v>
+        <v>47.0107291849547</v>
       </c>
       <c r="D12">
-        <v>1.156951169508079</v>
+        <v>1.217989803518048</v>
       </c>
       <c r="E12">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F12">
         <v>548.5188786062398</v>
       </c>
       <c r="G12">
-        <v>0.01134898404388891</v>
+        <v>0.01086240900604274</v>
       </c>
       <c r="H12">
-        <v>0.003334981693371619</v>
+        <v>0.003510929246195486</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.2319999307363</v>
+        <v>47.71951691477229</v>
       </c>
       <c r="D13">
-        <v>1.139932680652731</v>
+        <v>1.193703340651377</v>
       </c>
       <c r="E13">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F13">
         <v>548.5188786062398</v>
       </c>
       <c r="G13">
-        <v>0.01028551155510971</v>
+        <v>0.01226200325617439</v>
       </c>
       <c r="H13">
-        <v>0.003285924870337708</v>
+        <v>0.003440922048664811</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>47.48773957670062</v>
+        <v>48.05958166293252</v>
       </c>
       <c r="D14">
-        <v>1.112878122988779</v>
+        <v>1.171572217664642</v>
       </c>
       <c r="E14">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F14">
         <v>548.5188786062398</v>
       </c>
       <c r="G14">
-        <v>0.009114245209100202</v>
+        <v>0.01283039402546957</v>
       </c>
       <c r="H14">
-        <v>0.003207938472199651</v>
+        <v>0.003377127748646168</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>47.77473291375622</v>
+        <v>48.44095063513655</v>
       </c>
       <c r="D15">
-        <v>1.096114970279556</v>
+        <v>1.155297426633114</v>
       </c>
       <c r="E15">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F15">
         <v>548.5188786062398</v>
       </c>
       <c r="G15">
-        <v>0.008305125186045936</v>
+        <v>0.01105660651426237</v>
       </c>
       <c r="H15">
-        <v>0.003159617671044127</v>
+        <v>0.003330214679552101</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>47.78727704867992</v>
+        <v>48.45070397735569</v>
       </c>
       <c r="D16">
-        <v>1.094568875731007</v>
+        <v>1.137129627779104</v>
       </c>
       <c r="E16">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F16">
         <v>548.5188786062398</v>
       </c>
       <c r="G16">
-        <v>0.005403788030217039</v>
+        <v>0.008999842452506179</v>
       </c>
       <c r="H16">
-        <v>0.003155160960033735</v>
+        <v>0.003277844900961754</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>47.94526010225251</v>
+        <v>48.45343749844437</v>
       </c>
       <c r="D17">
-        <v>1.077787166237522</v>
+        <v>1.125171819138881</v>
       </c>
       <c r="E17">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F17">
         <v>548.5188786062398</v>
       </c>
       <c r="G17">
-        <v>0.004457876071976319</v>
+        <v>0.004587003647950505</v>
       </c>
       <c r="H17">
-        <v>0.003106786667825664</v>
+        <v>0.003243375794607905</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>48.03074881244032</v>
+        <v>48.63980163445644</v>
       </c>
       <c r="D18">
-        <v>1.070474862382671</v>
+        <v>1.121622694792426</v>
       </c>
       <c r="E18">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F18">
         <v>548.5188786062398</v>
       </c>
       <c r="G18">
-        <v>0.003393807723373143</v>
+        <v>0.003626374822024481</v>
       </c>
       <c r="H18">
-        <v>0.003085708509874825</v>
+        <v>0.003233145229105335</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>47.92870689141129</v>
+        <v>48.61371535681735</v>
       </c>
       <c r="D19">
-        <v>1.059025744997974</v>
+        <v>1.118325941087831</v>
       </c>
       <c r="E19">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F19">
         <v>548.5188786062398</v>
       </c>
       <c r="G19">
-        <v>0.0009623373603441898</v>
+        <v>0.001079779510504997</v>
       </c>
       <c r="H19">
-        <v>0.003052705736819622</v>
+        <v>0.003223642137235819</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>47.84454032843084</v>
+        <v>48.46353282997099</v>
       </c>
       <c r="D20">
-        <v>1.057997652208043</v>
+        <v>1.106797814271189</v>
       </c>
       <c r="E20">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F20">
         <v>548.5188786062398</v>
       </c>
       <c r="G20">
-        <v>0.0003578954984432503</v>
+        <v>8.018032884562487E-05</v>
       </c>
       <c r="H20">
-        <v>0.003049742197195936</v>
+        <v>0.00319041161471626</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>47.94360794751611</v>
+        <v>48.46955035378279</v>
       </c>
       <c r="D21">
-        <v>1.060330506078242</v>
+        <v>1.107960365702028</v>
       </c>
       <c r="E21">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F21">
         <v>548.5188786062398</v>
       </c>
       <c r="G21">
-        <v>-1.032596710253131E-05</v>
+        <v>0.0001007053458651264</v>
       </c>
       <c r="H21">
-        <v>0.00305646678951709</v>
+        <v>0.003193762739501501</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>47.57505398149706</v>
+        <v>48.38105916254851</v>
       </c>
       <c r="D22">
-        <v>1.04764198232727</v>
+        <v>1.097985497575019</v>
       </c>
       <c r="E22">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F22">
         <v>548.5188786062398</v>
       </c>
       <c r="G22">
-        <v>-0.00284809269339541</v>
+        <v>-0.001617140449424559</v>
       </c>
       <c r="H22">
-        <v>0.003019891352678736</v>
+        <v>0.003165009579062141</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>47.51610512386269</v>
+        <v>48.33688986186971</v>
       </c>
       <c r="D23">
-        <v>1.052702931877697</v>
+        <v>1.103977996527425</v>
       </c>
       <c r="E23">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F23">
         <v>548.5188786062398</v>
       </c>
       <c r="G23">
-        <v>-0.002578761047178757</v>
+        <v>-0.001730159343422777</v>
       </c>
       <c r="H23">
-        <v>0.00303447984573409</v>
+        <v>0.003182283319588562</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>47.41207319816938</v>
+        <v>48.14887070564765</v>
       </c>
       <c r="D24">
-        <v>1.059458709312456</v>
+        <v>1.105315298167594</v>
       </c>
       <c r="E24">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F24">
         <v>548.5188786062398</v>
       </c>
       <c r="G24">
-        <v>-0.00270291956413411</v>
+        <v>-0.001966638277020838</v>
       </c>
       <c r="H24">
-        <v>0.003053953782632389</v>
+        <v>0.003186138172417291</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>47.43044492206773</v>
+        <v>48.17251537531157</v>
       </c>
       <c r="D25">
-        <v>1.059623623763659</v>
+        <v>1.105933075216637</v>
       </c>
       <c r="E25">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F25">
         <v>548.5188786062398</v>
       </c>
       <c r="G25">
-        <v>-0.003207268909052363</v>
+        <v>-0.00185646861544515</v>
       </c>
       <c r="H25">
-        <v>0.003054429158508424</v>
+        <v>0.003187918952110888</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>47.22183621869291</v>
+        <v>48.09442834268214</v>
       </c>
       <c r="D26">
-        <v>1.058565690886784</v>
+        <v>1.115256982271</v>
       </c>
       <c r="E26">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F26">
         <v>548.5188786062398</v>
       </c>
       <c r="G26">
-        <v>-0.002207611017525935</v>
+        <v>-0.001791442624164796</v>
       </c>
       <c r="H26">
-        <v>0.003051379603030042</v>
+        <v>0.003214795677902367</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>47.21115425930282</v>
+        <v>47.97583841043095</v>
       </c>
       <c r="D27">
-        <v>1.067221768656621</v>
+        <v>1.119607806609842</v>
       </c>
       <c r="E27">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F27">
         <v>548.5188786062398</v>
       </c>
       <c r="G27">
-        <v>-0.001905942903499147</v>
+        <v>-0.002256571571492216</v>
       </c>
       <c r="H27">
-        <v>0.003076331270533072</v>
+        <v>0.003227337192102386</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>46.99530795283376</v>
+        <v>47.81593711437132</v>
       </c>
       <c r="D28">
-        <v>1.063897077374753</v>
+        <v>1.122892926848521</v>
       </c>
       <c r="E28">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F28">
         <v>548.5188786062398</v>
       </c>
       <c r="G28">
-        <v>-0.002604782783347615</v>
+        <v>-0.002080834945477061</v>
       </c>
       <c r="H28">
-        <v>0.003066747646908008</v>
+        <v>0.00323680674980306</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.9477684199618</v>
+        <v>47.79053096983338</v>
       </c>
       <c r="D29">
-        <v>1.075767046393075</v>
+        <v>1.131230060342875</v>
       </c>
       <c r="E29">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F29">
         <v>548.5188786062398</v>
       </c>
       <c r="G29">
-        <v>-0.003016728138162073</v>
+        <v>-0.002387402534238703</v>
       </c>
       <c r="H29">
-        <v>0.003100963550241097</v>
+        <v>0.003260839041149191</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.74076124547906</v>
+        <v>47.7004576781989</v>
       </c>
       <c r="D30">
-        <v>1.07540956150367</v>
+        <v>1.137987160055474</v>
       </c>
       <c r="E30">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F30">
         <v>548.5188786062398</v>
       </c>
       <c r="G30">
-        <v>-0.003006718582586565</v>
+        <v>-0.002462316653020258</v>
       </c>
       <c r="H30">
-        <v>0.00309993307843447</v>
+        <v>0.003280316789593308</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.56322382327285</v>
+        <v>47.42506323290969</v>
       </c>
       <c r="D31">
-        <v>1.087780893400141</v>
+        <v>1.136147127477002</v>
       </c>
       <c r="E31">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F31">
         <v>548.5188786062398</v>
       </c>
       <c r="G31">
-        <v>-0.004049565225187335</v>
+        <v>-0.003442344859507873</v>
       </c>
       <c r="H31">
-        <v>0.003135594190575354</v>
+        <v>0.003275012784440678</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.23438181744616</v>
+        <v>47.28020346726424</v>
       </c>
       <c r="D32">
-        <v>1.108295093501906</v>
+        <v>1.148247739855218</v>
       </c>
       <c r="E32">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F32">
         <v>548.5188786062398</v>
       </c>
       <c r="G32">
-        <v>-0.004755788346172496</v>
+        <v>-0.003348335294419247</v>
       </c>
       <c r="H32">
-        <v>0.003194727612621712</v>
+        <v>0.003309893531202959</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.0382533870375</v>
+        <v>46.94717478531292</v>
       </c>
       <c r="D33">
-        <v>1.109536571594705</v>
+        <v>1.16158337551366</v>
       </c>
       <c r="E33">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F33">
         <v>548.5188786062398</v>
       </c>
       <c r="G33">
-        <v>-0.005684468955776856</v>
+        <v>-0.005270976153252871</v>
       </c>
       <c r="H33">
-        <v>0.003198306248281821</v>
+        <v>0.003348334307237861</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.60493506110159</v>
+        <v>46.67712067373248</v>
       </c>
       <c r="D34">
-        <v>1.125657053663603</v>
+        <v>1.174144812016044</v>
       </c>
       <c r="E34">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F34">
         <v>548.5188786062398</v>
       </c>
       <c r="G34">
-        <v>-0.007098913652359151</v>
+        <v>-0.006395856277915124</v>
       </c>
       <c r="H34">
-        <v>0.003244774512461855</v>
+        <v>0.003384543407398685</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.286826007608</v>
+        <v>46.36959189342204</v>
       </c>
       <c r="D35">
-        <v>1.136285334725274</v>
+        <v>1.180660938826088</v>
       </c>
       <c r="E35">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F35">
         <v>548.5188786062398</v>
       </c>
       <c r="G35">
-        <v>-0.007977486347905316</v>
+        <v>-0.006596695871797831</v>
       </c>
       <c r="H35">
-        <v>0.003275411175189593</v>
+        <v>0.003403326536882382</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>45.03762530631725</v>
+        <v>46.01663970122701</v>
       </c>
       <c r="D36">
-        <v>1.168067177982148</v>
+        <v>1.198548488021213</v>
       </c>
       <c r="E36">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F36">
         <v>548.5188786062398</v>
       </c>
       <c r="G36">
-        <v>-0.007479728194555691</v>
+        <v>-0.00789727353773273</v>
       </c>
       <c r="H36">
-        <v>0.003367024259852749</v>
+        <v>0.003454888478887584</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>44.6733563338899</v>
+        <v>45.65715700006137</v>
       </c>
       <c r="D37">
-        <v>1.165042540942358</v>
+        <v>1.216546179272913</v>
       </c>
       <c r="E37">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F37">
         <v>548.5188786062398</v>
       </c>
       <c r="G37">
-        <v>-0.008530606582172506</v>
+        <v>-0.008062611157822187</v>
       </c>
       <c r="H37">
-        <v>0.003358305560721235</v>
+        <v>0.003506767912029861</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>44.29717432476381</v>
+        <v>45.33456151593987</v>
       </c>
       <c r="D38">
-        <v>1.182638810001186</v>
+        <v>1.236478919714133</v>
       </c>
       <c r="E38">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F38">
         <v>548.5188786062398</v>
       </c>
       <c r="G38">
-        <v>-0.008173504602111147</v>
+        <v>-0.008390994736203838</v>
       </c>
       <c r="H38">
-        <v>0.003409027870123269</v>
+        <v>0.003564225241450654</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>43.90755945420437</v>
+        <v>45.12916732021816</v>
       </c>
       <c r="D39">
-        <v>1.212227366714106</v>
+        <v>1.251095391876725</v>
       </c>
       <c r="E39">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F39">
         <v>548.5188786062398</v>
       </c>
       <c r="G39">
-        <v>-0.008620415958772698</v>
+        <v>-0.007752653582524261</v>
       </c>
       <c r="H39">
-        <v>0.00349431867372117</v>
+        <v>0.003606358106145925</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>43.65699003326935</v>
+        <v>44.81817806614023</v>
       </c>
       <c r="D40">
-        <v>1.226962337164171</v>
+        <v>1.259639423219875</v>
       </c>
       <c r="E40">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F40">
         <v>548.5188786062398</v>
       </c>
       <c r="G40">
-        <v>-0.008628970456549378</v>
+        <v>-0.007490385219292373</v>
       </c>
       <c r="H40">
-        <v>0.003536793116894284</v>
+        <v>0.003630986793049898</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>43.33807397722064</v>
+        <v>44.66351365064956</v>
       </c>
       <c r="D41">
-        <v>1.240986155440991</v>
+        <v>1.277339208147292</v>
       </c>
       <c r="E41">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F41">
         <v>548.5188786062398</v>
       </c>
       <c r="G41">
-        <v>-0.008345514729182879</v>
+        <v>-0.006210270933823781</v>
       </c>
       <c r="H41">
-        <v>0.00357721762093299</v>
+        <v>0.003682007493201529</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>43.404755588117</v>
+        <v>44.41909167556309</v>
       </c>
       <c r="D42">
-        <v>1.2524972504047</v>
+        <v>1.290953807758143</v>
       </c>
       <c r="E42">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F42">
         <v>548.5188786062398</v>
       </c>
       <c r="G42">
-        <v>-0.005577617104042564</v>
+        <v>-0.005721686502354872</v>
       </c>
       <c r="H42">
-        <v>0.003610399048106753</v>
+        <v>0.003721252399694927</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>42.98114930358806</v>
+        <v>44.37981799915419</v>
       </c>
       <c r="D43">
-        <v>1.251243965462332</v>
+        <v>1.301482410289218</v>
       </c>
       <c r="E43">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F43">
         <v>548.5188786062398</v>
       </c>
       <c r="G43">
-        <v>-0.005790063441351911</v>
+        <v>-0.004683433256649794</v>
       </c>
       <c r="H43">
-        <v>0.003606786378488939</v>
+        <v>0.00375160173303183</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>42.93990846562664</v>
+        <v>44.1441219321461</v>
       </c>
       <c r="D44">
-        <v>1.264107787503478</v>
+        <v>1.3195341316745</v>
       </c>
       <c r="E44">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F44">
         <v>548.5188786062398</v>
       </c>
       <c r="G44">
-        <v>-0.004481759797766971</v>
+        <v>-0.0042128508374633</v>
       </c>
       <c r="H44">
-        <v>0.003643867123246952</v>
+        <v>0.003803636911300726</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>42.96618181722035</v>
+        <v>44.19820760475485</v>
       </c>
       <c r="D45">
-        <v>1.282850356675047</v>
+        <v>1.334751157810955</v>
       </c>
       <c r="E45">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F45">
         <v>548.5188786062398</v>
       </c>
       <c r="G45">
-        <v>-0.002324326000001786</v>
+        <v>-0.002908162786841961</v>
       </c>
       <c r="H45">
-        <v>0.003697893712027281</v>
+        <v>0.003847500909134112</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>43.29177202772793</v>
+        <v>44.12919629610158</v>
       </c>
       <c r="D46">
-        <v>1.290446958514304</v>
+        <v>1.352771207137031</v>
       </c>
       <c r="E46">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F46">
         <v>548.5188786062398</v>
       </c>
       <c r="G46">
-        <v>-0.000706147252431677</v>
+        <v>-0.001811846121634408</v>
       </c>
       <c r="H46">
-        <v>0.003719791376106333</v>
+        <v>0.003899444790777508</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>42.87000201836291</v>
+        <v>44.22642288630836</v>
       </c>
       <c r="D47">
-        <v>1.314104621579468</v>
+        <v>1.35782768043611</v>
       </c>
       <c r="E47">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F47">
         <v>548.5188786062398</v>
       </c>
       <c r="G47">
-        <v>-0.0006946705326571934</v>
+        <v>-0.0009587194552864275</v>
       </c>
       <c r="H47">
-        <v>0.003787986020193017</v>
+        <v>0.003914020380767724</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.24027189059904</v>
+        <v>43.94612455440509</v>
       </c>
       <c r="D48">
-        <v>1.342448448231631</v>
+        <v>1.368804727293886</v>
       </c>
       <c r="E48">
-        <v>353.9333682153398</v>
+        <v>318.2597369028206</v>
       </c>
       <c r="F48">
         <v>548.5188786062398</v>
       </c>
       <c r="G48">
-        <v>0.001877271406077519</v>
+        <v>-0.001237483610881318</v>
       </c>
       <c r="H48">
-        <v>0.003869688814136562</v>
+        <v>0.003945662381988511</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_nn_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_nn_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>43.02567001129168</v>
+        <v>44.76336243800775</v>
       </c>
       <c r="D2">
-        <v>1.416830200695417</v>
+        <v>1.175389065691832</v>
       </c>
       <c r="E2">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F2">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H2">
-        <v>0.004084098712605395</v>
+        <v>0.001694065021922283</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>43.57763976934167</v>
+        <v>45.1234312029281</v>
       </c>
       <c r="D3">
-        <v>1.414555854151215</v>
+        <v>1.180409974022611</v>
       </c>
       <c r="E3">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F3">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H3">
-        <v>0.00407754277118868</v>
+        <v>0.001701301557831731</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>43.73121637596176</v>
+        <v>45.42169734359254</v>
       </c>
       <c r="D4">
-        <v>1.404513183589426</v>
+        <v>1.187537826882489</v>
       </c>
       <c r="E4">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F4">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H4">
-        <v>0.004048594166131848</v>
+        <v>0.001711574791234851</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>44.34770734767049</v>
+        <v>45.62824123701445</v>
       </c>
       <c r="D5">
-        <v>1.392664980193563</v>
+        <v>1.182761324283725</v>
       </c>
       <c r="E5">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F5">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="H5">
-        <v>0.004014441003521409</v>
+        <v>0.001704690512474844</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>44.66994704274317</v>
+        <v>45.80032079973739</v>
       </c>
       <c r="D6">
-        <v>1.37067605835391</v>
+        <v>1.185973172792433</v>
       </c>
       <c r="E6">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F6">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G6">
-        <v>0.0102767314465718</v>
+        <v>0.006480989760810241</v>
       </c>
       <c r="H6">
-        <v>0.003951056606906467</v>
+        <v>0.001709319686229419</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>44.85103422470556</v>
+        <v>46.3194827452709</v>
       </c>
       <c r="D7">
-        <v>1.343877274170904</v>
+        <v>1.182680839135374</v>
       </c>
       <c r="E7">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F7">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G7">
-        <v>0.00795871534602428</v>
+        <v>0.007475322139642504</v>
       </c>
       <c r="H7">
-        <v>0.003873807491290859</v>
+        <v>0.001704574510821787</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.27274374398786</v>
+        <v>46.04322242271645</v>
       </c>
       <c r="D8">
-        <v>1.325166491710889</v>
+        <v>1.186550814966641</v>
       </c>
       <c r="E8">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F8">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G8">
-        <v>0.00963454605016314</v>
+        <v>0.003884531744524411</v>
       </c>
       <c r="H8">
-        <v>0.003819872529628354</v>
+        <v>0.00171015223047462</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.75759639378439</v>
+        <v>46.68537804909307</v>
       </c>
       <c r="D9">
-        <v>1.300385315752265</v>
+        <v>1.171216167766443</v>
       </c>
       <c r="E9">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F9">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G9">
-        <v>0.008811806538211852</v>
+        <v>0.00660710507549136</v>
       </c>
       <c r="H9">
-        <v>0.003748439291700627</v>
+        <v>0.001688050706644224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>46.00671861885739</v>
+        <v>46.11475989632078</v>
       </c>
       <c r="D10">
-        <v>1.276318835977166</v>
+        <v>1.175367431268053</v>
       </c>
       <c r="E10">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F10">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G10">
-        <v>0.008354822350713897</v>
+        <v>0.001965244353646156</v>
       </c>
       <c r="H10">
-        <v>0.003679066208731205</v>
+        <v>0.001694033840655022</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>46.67189359285457</v>
+        <v>46.84046574916659</v>
       </c>
       <c r="D11">
-        <v>1.235226166869251</v>
+        <v>1.166270409684664</v>
       </c>
       <c r="E11">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F11">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G11">
-        <v>0.01138037105093135</v>
+        <v>0.003256143774348041</v>
       </c>
       <c r="H11">
-        <v>0.003560614105636014</v>
+        <v>0.001680922483302875</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>47.0107291849547</v>
+        <v>46.3328091557573</v>
       </c>
       <c r="D12">
-        <v>1.217989803518048</v>
+        <v>1.160029994617551</v>
       </c>
       <c r="E12">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F12">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G12">
-        <v>0.01086240900604274</v>
+        <v>0.001809917081505352</v>
       </c>
       <c r="H12">
-        <v>0.003510929246195486</v>
+        <v>0.001671928296445053</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>47.71951691477229</v>
+        <v>47.17690928556112</v>
       </c>
       <c r="D13">
-        <v>1.193703340651377</v>
+        <v>1.155010388106383</v>
       </c>
       <c r="E13">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F13">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G13">
-        <v>0.01226200325617439</v>
+        <v>0.00307207022792535</v>
       </c>
       <c r="H13">
-        <v>0.003440922048664811</v>
+        <v>0.001664693636822473</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>48.05958166293252</v>
+        <v>46.80155919254064</v>
       </c>
       <c r="D14">
-        <v>1.171572217664642</v>
+        <v>1.143500134452028</v>
       </c>
       <c r="E14">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F14">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G14">
-        <v>0.01283039402546957</v>
+        <v>0.004292495601374124</v>
       </c>
       <c r="H14">
-        <v>0.003377127748646168</v>
+        <v>0.00164810413579813</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>48.44095063513655</v>
+        <v>46.81977478293388</v>
       </c>
       <c r="D15">
-        <v>1.155297426633114</v>
+        <v>1.139628296762709</v>
       </c>
       <c r="E15">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F15">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G15">
-        <v>0.01105660651426237</v>
+        <v>-0.0001293185389544593</v>
       </c>
       <c r="H15">
-        <v>0.003330214679552101</v>
+        <v>0.001642523732686097</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>48.45070397735569</v>
+        <v>47.40450703533147</v>
       </c>
       <c r="D16">
-        <v>1.137129627779104</v>
+        <v>1.135082570192125</v>
       </c>
       <c r="E16">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F16">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G16">
-        <v>0.008999842452506179</v>
+        <v>0.006698111747338542</v>
       </c>
       <c r="H16">
-        <v>0.003277844900961754</v>
+        <v>0.001635972066852864</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>48.45343749844437</v>
+        <v>46.97002051466301</v>
       </c>
       <c r="D17">
-        <v>1.125171819138881</v>
+        <v>1.121518635655152</v>
       </c>
       <c r="E17">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F17">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G17">
-        <v>0.004587003647950505</v>
+        <v>-0.001293054818113193</v>
       </c>
       <c r="H17">
-        <v>0.003243375794607905</v>
+        <v>0.001616422636175453</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>48.63980163445644</v>
+        <v>47.54343873217593</v>
       </c>
       <c r="D18">
-        <v>1.121622694792426</v>
+        <v>1.119193294309046</v>
       </c>
       <c r="E18">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F18">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G18">
-        <v>0.003626374822024481</v>
+        <v>0.004636747122720575</v>
       </c>
       <c r="H18">
-        <v>0.003233145229105335</v>
+        <v>0.001613071167667322</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>48.61371535681735</v>
+        <v>47.28208890180975</v>
       </c>
       <c r="D19">
-        <v>1.118325941087831</v>
+        <v>1.101751674519543</v>
       </c>
       <c r="E19">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F19">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G19">
-        <v>0.001079779510504997</v>
+        <v>0.002889463242974211</v>
       </c>
       <c r="H19">
-        <v>0.003223642137235819</v>
+        <v>0.001587932905900634</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>48.46353282997099</v>
+        <v>47.57136477900952</v>
       </c>
       <c r="D20">
-        <v>1.106797814271189</v>
+        <v>1.096059532272956</v>
       </c>
       <c r="E20">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F20">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G20">
-        <v>8.018032884562487E-05</v>
+        <v>0.001042860897987818</v>
       </c>
       <c r="H20">
-        <v>0.00319041161471626</v>
+        <v>0.001579728933819208</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>48.46955035378279</v>
+        <v>47.78558676153727</v>
       </c>
       <c r="D21">
-        <v>1.107960365702028</v>
+        <v>1.078015721788553</v>
       </c>
       <c r="E21">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F21">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G21">
-        <v>0.0001007053458651264</v>
+        <v>0.005097289042964093</v>
       </c>
       <c r="H21">
-        <v>0.003193762739501501</v>
+        <v>0.001553722746509791</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>48.38105916254851</v>
+        <v>47.81003618085415</v>
       </c>
       <c r="D22">
-        <v>1.097985497575019</v>
+        <v>1.069706035040079</v>
       </c>
       <c r="E22">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F22">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G22">
-        <v>-0.001617140449424559</v>
+        <v>0.001666234054238869</v>
       </c>
       <c r="H22">
-        <v>0.003165009579062141</v>
+        <v>0.001541746159288917</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>48.33688986186971</v>
+        <v>47.97808483505614</v>
       </c>
       <c r="D23">
-        <v>1.103977996527425</v>
+        <v>1.063703920500419</v>
       </c>
       <c r="E23">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F23">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G23">
-        <v>-0.001730159343422777</v>
+        <v>0.004349974582789917</v>
       </c>
       <c r="H23">
-        <v>0.003182283319588562</v>
+        <v>0.001533095430269905</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>48.14887070564765</v>
+        <v>48.14844948778163</v>
       </c>
       <c r="D24">
-        <v>1.105315298167594</v>
+        <v>1.054118846361334</v>
       </c>
       <c r="E24">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F24">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G24">
-        <v>-0.001966638277020838</v>
+        <v>0.003606779429825702</v>
       </c>
       <c r="H24">
-        <v>0.003186138172417291</v>
+        <v>0.001519280652418455</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>48.17251537531157</v>
+        <v>47.92781613883419</v>
       </c>
       <c r="D25">
-        <v>1.105933075216637</v>
+        <v>1.034182205187541</v>
       </c>
       <c r="E25">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F25">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G25">
-        <v>-0.00185646861544515</v>
+        <v>0.0008889336081057575</v>
       </c>
       <c r="H25">
-        <v>0.003187918952110888</v>
+        <v>0.001490546365659322</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>48.09442834268214</v>
+        <v>48.06877172616144</v>
       </c>
       <c r="D26">
-        <v>1.115256982271</v>
+        <v>1.027935082979822</v>
       </c>
       <c r="E26">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F26">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G26">
-        <v>-0.001791442624164796</v>
+        <v>0.001617097158170555</v>
       </c>
       <c r="H26">
-        <v>0.003214795677902367</v>
+        <v>0.001481542511932351</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>47.97583841043095</v>
+        <v>48.0205901802909</v>
       </c>
       <c r="D27">
-        <v>1.119607806609842</v>
+        <v>1.020930712372506</v>
       </c>
       <c r="E27">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F27">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G27">
-        <v>-0.002256571571492216</v>
+        <v>0.0002656584077172841</v>
       </c>
       <c r="H27">
-        <v>0.003227337192102386</v>
+        <v>0.001471447251058497</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>47.81593711437132</v>
+        <v>48.0429064235317</v>
       </c>
       <c r="D28">
-        <v>1.122892926848521</v>
+        <v>1.0170070872756</v>
       </c>
       <c r="E28">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F28">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G28">
-        <v>-0.002080834945477061</v>
+        <v>-0.0006596441515620999</v>
       </c>
       <c r="H28">
-        <v>0.00323680674980306</v>
+        <v>0.001465792207779791</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>47.79053096983338</v>
+        <v>47.96161537447755</v>
       </c>
       <c r="D29">
-        <v>1.131230060342875</v>
+        <v>1.00294412489645</v>
       </c>
       <c r="E29">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F29">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G29">
-        <v>-0.002387402534238703</v>
+        <v>0.0002112452227710282</v>
       </c>
       <c r="H29">
-        <v>0.003260839041149191</v>
+        <v>0.001445523538139663</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>47.7004576781989</v>
+        <v>47.59641799952152</v>
       </c>
       <c r="D30">
-        <v>1.137987160055474</v>
+        <v>0.9999396315422135</v>
       </c>
       <c r="E30">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F30">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G30">
-        <v>-0.002462316653020258</v>
+        <v>-0.002952210791499476</v>
       </c>
       <c r="H30">
-        <v>0.003280316789593308</v>
+        <v>0.001441193221269636</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>47.42506323290969</v>
+        <v>47.59154787922778</v>
       </c>
       <c r="D31">
-        <v>1.136147127477002</v>
+        <v>0.9888041915875728</v>
       </c>
       <c r="E31">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F31">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G31">
-        <v>-0.003442344859507873</v>
+        <v>-0.002681514381644501</v>
       </c>
       <c r="H31">
-        <v>0.003275012784440678</v>
+        <v>0.0014251439318203</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>47.28020346726424</v>
+        <v>47.48038180313431</v>
       </c>
       <c r="D32">
-        <v>1.148247739855218</v>
+        <v>0.9811067317358662</v>
       </c>
       <c r="E32">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F32">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G32">
-        <v>-0.003348335294419247</v>
+        <v>-0.003515778877483688</v>
       </c>
       <c r="H32">
-        <v>0.003309893531202959</v>
+        <v>0.001414049735121481</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>46.94717478531292</v>
+        <v>47.22223122058865</v>
       </c>
       <c r="D33">
-        <v>1.16158337551366</v>
+        <v>0.9853273520019035</v>
       </c>
       <c r="E33">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F33">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G33">
-        <v>-0.005270976153252871</v>
+        <v>-0.004621150961805665</v>
       </c>
       <c r="H33">
-        <v>0.003348334307237861</v>
+        <v>0.001420132831665604</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>46.67712067373248</v>
+        <v>47.11707791669679</v>
       </c>
       <c r="D34">
-        <v>1.174144812016044</v>
+        <v>0.9713829459282721</v>
       </c>
       <c r="E34">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F34">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G34">
-        <v>-0.006395856277915124</v>
+        <v>-0.002995875517654545</v>
       </c>
       <c r="H34">
-        <v>0.003384543407398685</v>
+        <v>0.001400035034884659</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>46.36959189342204</v>
+        <v>46.97746795965906</v>
       </c>
       <c r="D35">
-        <v>1.180660938826088</v>
+        <v>0.9836990852296928</v>
       </c>
       <c r="E35">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F35">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G35">
-        <v>-0.006596695871797831</v>
+        <v>-0.003837999497304523</v>
       </c>
       <c r="H35">
-        <v>0.003403326536882382</v>
+        <v>0.00141778604295906</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>46.01663970122701</v>
+        <v>46.51775462439036</v>
       </c>
       <c r="D36">
-        <v>1.198548488021213</v>
+        <v>0.9740086716398033</v>
       </c>
       <c r="E36">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F36">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G36">
-        <v>-0.00789727353773273</v>
+        <v>-0.006016419867149648</v>
       </c>
       <c r="H36">
-        <v>0.003454888478887584</v>
+        <v>0.001403819441439818</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>45.65715700006137</v>
+        <v>46.42813126633835</v>
       </c>
       <c r="D37">
-        <v>1.216546179272913</v>
+        <v>0.972098028984509</v>
       </c>
       <c r="E37">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F37">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G37">
-        <v>-0.008062611157822187</v>
+        <v>-0.004963124714064371</v>
       </c>
       <c r="H37">
-        <v>0.003506767912029861</v>
+        <v>0.001401065669955802</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>45.33456151593987</v>
+        <v>46.22686339534008</v>
       </c>
       <c r="D38">
-        <v>1.236478919714133</v>
+        <v>0.975934506788393</v>
       </c>
       <c r="E38">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F38">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G38">
-        <v>-0.008390994736203838</v>
+        <v>-0.005563840758479444</v>
       </c>
       <c r="H38">
-        <v>0.003564225241450654</v>
+        <v>0.001406595109564052</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>45.12916732021816</v>
+        <v>46.14925962052455</v>
       </c>
       <c r="D39">
-        <v>1.251095391876725</v>
+        <v>0.9726392227484152</v>
       </c>
       <c r="E39">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F39">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G39">
-        <v>-0.007752653582524261</v>
+        <v>-0.005176302119590659</v>
       </c>
       <c r="H39">
-        <v>0.003606358106145925</v>
+        <v>0.00140184568182785</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>44.81817806614023</v>
+        <v>45.76584451742984</v>
       </c>
       <c r="D40">
-        <v>1.259639423219875</v>
+        <v>0.9686983204246125</v>
       </c>
       <c r="E40">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F40">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G40">
-        <v>-0.007490385219292373</v>
+        <v>-0.004699438168503267</v>
       </c>
       <c r="H40">
-        <v>0.003630986793049898</v>
+        <v>0.001396165737223604</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>44.66351365064956</v>
+        <v>45.64685781026633</v>
       </c>
       <c r="D41">
-        <v>1.277339208147292</v>
+        <v>0.9704378440213974</v>
       </c>
       <c r="E41">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F41">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G41">
-        <v>-0.006210270933823781</v>
+        <v>-0.00488295910045009</v>
       </c>
       <c r="H41">
-        <v>0.003682007493201529</v>
+        <v>0.001398672878191763</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>44.41909167556309</v>
+        <v>45.64490127007594</v>
       </c>
       <c r="D42">
-        <v>1.290953807758143</v>
+        <v>0.9668026223666455</v>
       </c>
       <c r="E42">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F42">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G42">
-        <v>-0.005721686502354872</v>
+        <v>-0.003637263282900882</v>
       </c>
       <c r="H42">
-        <v>0.003721252399694927</v>
+        <v>0.001393433505092248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>44.37981799915419</v>
+        <v>45.38591754640418</v>
       </c>
       <c r="D43">
-        <v>1.301482410289218</v>
+        <v>0.9667293058379309</v>
       </c>
       <c r="E43">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F43">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G43">
-        <v>-0.004683433256649794</v>
+        <v>-0.004770887963252335</v>
       </c>
       <c r="H43">
-        <v>0.00375160173303183</v>
+        <v>0.001393327835428943</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>44.1441219321461</v>
+        <v>45.27459631329683</v>
       </c>
       <c r="D44">
-        <v>1.3195341316745</v>
+        <v>0.9688331186782723</v>
       </c>
       <c r="E44">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F44">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G44">
-        <v>-0.0042128508374633</v>
+        <v>-0.0030703012758313</v>
       </c>
       <c r="H44">
-        <v>0.003803636911300726</v>
+        <v>0.001396360019281526</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,22 +1541,22 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.19820760475485</v>
+        <v>45.01980670446495</v>
       </c>
       <c r="D45">
-        <v>1.334751157810955</v>
+        <v>0.9718316220573235</v>
       </c>
       <c r="E45">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F45">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G45">
-        <v>-0.002908162786841961</v>
+        <v>-0.003919069411258658</v>
       </c>
       <c r="H45">
-        <v>0.003847500909134112</v>
+        <v>0.001400681702918745</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1567,22 +1567,22 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.12919629610158</v>
+        <v>44.79634937765247</v>
       </c>
       <c r="D46">
-        <v>1.352771207137031</v>
+        <v>0.9724477978732375</v>
       </c>
       <c r="E46">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F46">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G46">
-        <v>-0.001811846121634408</v>
+        <v>-0.005303449327646703</v>
       </c>
       <c r="H46">
-        <v>0.003899444790777508</v>
+        <v>0.001401569784939892</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1593,22 +1593,22 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.22642288630836</v>
+        <v>44.62043970361405</v>
       </c>
       <c r="D47">
-        <v>1.35782768043611</v>
+        <v>0.9722131685777695</v>
       </c>
       <c r="E47">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F47">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G47">
-        <v>-0.0009587194552864275</v>
+        <v>-0.004784236517438289</v>
       </c>
       <c r="H47">
-        <v>0.003914020380767724</v>
+        <v>0.001401231618375159</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1619,22 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.94612455440509</v>
+        <v>44.46792161784612</v>
       </c>
       <c r="D48">
-        <v>1.368804727293886</v>
+        <v>0.9693461601539812</v>
       </c>
       <c r="E48">
-        <v>318.2597369028206</v>
+        <v>261.0814336799613</v>
       </c>
       <c r="F48">
-        <v>548.5188786062398</v>
+        <v>1097.03775721248</v>
       </c>
       <c r="G48">
-        <v>-0.001237483610881318</v>
+        <v>-0.005041716846566935</v>
       </c>
       <c r="H48">
-        <v>0.003945662381988511</v>
+        <v>0.001397099455817191</v>
       </c>
     </row>
   </sheetData>

--- a/Empirical Application/Estimates/emp_app_nn_c3_L5.xlsx
+++ b/Empirical Application/Estimates/emp_app_nn_c3_L5.xlsx
@@ -435,19 +435,19 @@
         <v>160</v>
       </c>
       <c r="C2">
-        <v>44.35997745546897</v>
+        <v>44.2682274773331</v>
       </c>
       <c r="D2">
-        <v>1.204484900071059</v>
+        <v>1.20293276763713</v>
       </c>
       <c r="E2">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F2">
         <v>1097.03775721248</v>
       </c>
       <c r="H2">
-        <v>0.001736000272763229</v>
+        <v>0.001733763214973209</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,19 +458,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>45.15261645953648</v>
+        <v>45.17140247527608</v>
       </c>
       <c r="D3">
-        <v>1.027283444223706</v>
+        <v>1.019399820437335</v>
       </c>
       <c r="E3">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F3">
         <v>1097.03775721248</v>
       </c>
       <c r="H3">
-        <v>0.001480603317876623</v>
+        <v>0.001469240806779394</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>240</v>
       </c>
       <c r="C4">
-        <v>45.23564058531248</v>
+        <v>45.30897851904157</v>
       </c>
       <c r="D4">
-        <v>1.023407464318599</v>
+        <v>1.020905853490772</v>
       </c>
       <c r="E4">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F4">
         <v>1097.03775721248</v>
       </c>
       <c r="H4">
-        <v>0.001475016944670871</v>
+        <v>0.001471411422443736</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,19 +504,19 @@
         <v>280</v>
       </c>
       <c r="C5">
-        <v>45.45312659167554</v>
+        <v>45.45392629578605</v>
       </c>
       <c r="D5">
-        <v>1.029541991065534</v>
+        <v>1.02393240890575</v>
       </c>
       <c r="E5">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F5">
         <v>1097.03775721248</v>
       </c>
       <c r="H5">
-        <v>0.001483858516786324</v>
+        <v>0.001475773536925723</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -527,22 +527,22 @@
         <v>320</v>
       </c>
       <c r="C6">
-        <v>45.53527886799187</v>
+        <v>45.35664510759577</v>
       </c>
       <c r="D6">
-        <v>1.027206462506894</v>
+        <v>1.026021200627018</v>
       </c>
       <c r="E6">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F6">
         <v>1097.03775721248</v>
       </c>
       <c r="G6">
-        <v>0.009563193103417068</v>
+        <v>0.008651839728090716</v>
       </c>
       <c r="H6">
-        <v>0.001480492365650177</v>
+        <v>0.001478784071136366</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -553,22 +553,22 @@
         <v>360</v>
       </c>
       <c r="C7">
-        <v>45.60529275617946</v>
+        <v>45.59281409672564</v>
       </c>
       <c r="D7">
-        <v>1.028302999476605</v>
+        <v>1.023509605199378</v>
       </c>
       <c r="E7">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F7">
         <v>1097.03775721248</v>
       </c>
       <c r="G7">
-        <v>0.004932054941529129</v>
+        <v>0.003893621657952062</v>
       </c>
       <c r="H7">
-        <v>0.001482072782705137</v>
+        <v>0.001475164158302924</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -579,22 +579,22 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>45.64664254128378</v>
+        <v>45.61356215803296</v>
       </c>
       <c r="D8">
-        <v>1.026634624414146</v>
+        <v>1.025658416478152</v>
       </c>
       <c r="E8">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F8">
         <v>1097.03775721248</v>
       </c>
       <c r="G8">
-        <v>0.005449398629828383</v>
+        <v>0.002686108459036785</v>
       </c>
       <c r="H8">
-        <v>0.001479668186712834</v>
+        <v>0.001478261197515162</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -605,22 +605,22 @@
         <v>440</v>
       </c>
       <c r="C9">
-        <v>45.8539939600506</v>
+        <v>45.68001876912528</v>
       </c>
       <c r="D9">
-        <v>1.026246169371359</v>
+        <v>1.023163821854842</v>
       </c>
       <c r="E9">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F9">
         <v>1097.03775721248</v>
       </c>
       <c r="G9">
-        <v>0.004316589230629786</v>
+        <v>0.002151132245846022</v>
       </c>
       <c r="H9">
-        <v>0.001479108314139757</v>
+        <v>0.00147466578760488</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -631,22 +631,22 @@
         <v>480</v>
       </c>
       <c r="C10">
-        <v>45.8900883520157</v>
+        <v>45.65252183382761</v>
       </c>
       <c r="D10">
-        <v>1.022449346328248</v>
+        <v>1.013600098416993</v>
       </c>
       <c r="E10">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F10">
         <v>1097.03775721248</v>
       </c>
       <c r="G10">
-        <v>0.003025788775398075</v>
+        <v>0.002866301293691098</v>
       </c>
       <c r="H10">
-        <v>0.0014736360281542</v>
+        <v>0.001460881782097</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -657,22 +657,22 @@
         <v>520</v>
       </c>
       <c r="C11">
-        <v>45.94174525018114</v>
+        <v>45.79438194054841</v>
       </c>
       <c r="D11">
-        <v>1.020810945601108</v>
+        <v>1.01528603809756</v>
       </c>
       <c r="E11">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F11">
         <v>1097.03775721248</v>
       </c>
       <c r="G11">
-        <v>0.003231893343583891</v>
+        <v>0.001944459487102668</v>
       </c>
       <c r="H11">
-        <v>0.001471274633578774</v>
+        <v>0.001463311693626114</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -683,22 +683,22 @@
         <v>560</v>
       </c>
       <c r="C12">
-        <v>46.10754436608502</v>
+        <v>45.73875587248745</v>
       </c>
       <c r="D12">
-        <v>1.021055841515118</v>
+        <v>1.010201033367083</v>
       </c>
       <c r="E12">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F12">
         <v>1097.03775721248</v>
       </c>
       <c r="G12">
-        <v>0.003833084348015303</v>
+        <v>0.0009160394627545365</v>
       </c>
       <c r="H12">
-        <v>0.001471627597217832</v>
+        <v>0.001455982776843023</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -709,22 +709,22 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>46.14378086857631</v>
+        <v>45.79810745512141</v>
       </c>
       <c r="D13">
-        <v>1.007770086819689</v>
+        <v>1.00420521520481</v>
       </c>
       <c r="E13">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F13">
         <v>1097.03775721248</v>
       </c>
       <c r="G13">
-        <v>0.001903516451593346</v>
+        <v>0.001310260770251936</v>
       </c>
       <c r="H13">
-        <v>0.001452479101646182</v>
+        <v>0.001447341122668255</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -735,22 +735,22 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>46.01940507205556</v>
+        <v>45.81525331458634</v>
       </c>
       <c r="D14">
-        <v>1.002123642878233</v>
+        <v>1.00138414407305</v>
       </c>
       <c r="E14">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F14">
         <v>1097.03775721248</v>
       </c>
       <c r="G14">
-        <v>0.002107739084925564</v>
+        <v>0.001406025580760595</v>
       </c>
       <c r="H14">
-        <v>0.001444340993628446</v>
+        <v>0.001443275168621068</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -761,22 +761,22 @@
         <v>680</v>
       </c>
       <c r="C15">
-        <v>46.12239569115288</v>
+        <v>45.90392761466207</v>
       </c>
       <c r="D15">
-        <v>1.001018375647942</v>
+        <v>0.9963791652332115</v>
       </c>
       <c r="E15">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F15">
         <v>1097.03775721248</v>
       </c>
       <c r="G15">
-        <v>0.00208852852258472</v>
+        <v>0.0009724497502091811</v>
       </c>
       <c r="H15">
-        <v>0.001442747993821518</v>
+        <v>0.001436061591571973</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -787,22 +787,22 @@
         <v>720</v>
       </c>
       <c r="C16">
-        <v>46.25993603696623</v>
+        <v>45.76012847207369</v>
       </c>
       <c r="D16">
-        <v>0.9934335353567316</v>
+        <v>0.9858774454122767</v>
       </c>
       <c r="E16">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F16">
         <v>1097.03775721248</v>
       </c>
       <c r="G16">
-        <v>0.001088404195541592</v>
+        <v>0.001107014470129109</v>
       </c>
       <c r="H16">
-        <v>0.001431816113468655</v>
+        <v>0.001420925670422152</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -813,22 +813,22 @@
         <v>760</v>
       </c>
       <c r="C17">
-        <v>46.15855659230554</v>
+        <v>45.88966049236559</v>
       </c>
       <c r="D17">
-        <v>0.991569270968425</v>
+        <v>0.9852928615393929</v>
       </c>
       <c r="E17">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F17">
         <v>1097.03775721248</v>
       </c>
       <c r="G17">
-        <v>0.0006925443229926831</v>
+        <v>0.001076031495442287</v>
       </c>
       <c r="H17">
-        <v>0.00142912918606391</v>
+        <v>0.001420083121243894</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -839,22 +839,22 @@
         <v>800</v>
       </c>
       <c r="C18">
-        <v>46.22732660560379</v>
+        <v>45.87748592674931</v>
       </c>
       <c r="D18">
-        <v>0.9836205617045122</v>
+        <v>0.9746609164376587</v>
       </c>
       <c r="E18">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F18">
         <v>1097.03775721248</v>
       </c>
       <c r="G18">
-        <v>0.001823511676526879</v>
+        <v>0.0006812196080224098</v>
       </c>
       <c r="H18">
-        <v>0.001417672868554695</v>
+        <v>0.001404759508971523</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -865,22 +865,22 @@
         <v>840</v>
       </c>
       <c r="C19">
-        <v>46.2759098137947</v>
+        <v>45.94997390058188</v>
       </c>
       <c r="D19">
-        <v>0.9750746045868112</v>
+        <v>0.9680463158293512</v>
       </c>
       <c r="E19">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F19">
         <v>1097.03775721248</v>
       </c>
       <c r="G19">
-        <v>0.001146516093737882</v>
+        <v>0.0006194882132689372</v>
       </c>
       <c r="H19">
-        <v>0.001405355749521923</v>
+        <v>0.001395226015891149</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -891,22 +891,22 @@
         <v>880</v>
       </c>
       <c r="C20">
-        <v>46.28168903737168</v>
+        <v>45.91587818770811</v>
       </c>
       <c r="D20">
-        <v>0.9676998297929569</v>
+        <v>0.9627301154572658</v>
       </c>
       <c r="E20">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F20">
         <v>1097.03775721248</v>
       </c>
       <c r="G20">
-        <v>0.0004042371271885781</v>
+        <v>0.001873044346285901</v>
       </c>
       <c r="H20">
-        <v>0.001394726632417223</v>
+        <v>0.001387563881400746</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -917,22 +917,22 @@
         <v>920</v>
       </c>
       <c r="C21">
-        <v>46.25458796025514</v>
+        <v>45.97027249439218</v>
       </c>
       <c r="D21">
-        <v>0.9590012490960581</v>
+        <v>0.9548981938526613</v>
       </c>
       <c r="E21">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F21">
         <v>1097.03775721248</v>
       </c>
       <c r="G21">
-        <v>0.001799449469709202</v>
+        <v>0.001327558492971814</v>
       </c>
       <c r="H21">
-        <v>0.001382189540037253</v>
+        <v>0.0013762758876359</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,22 +943,22 @@
         <v>960</v>
       </c>
       <c r="C22">
-        <v>46.31116694029986</v>
+        <v>45.92424845186993</v>
       </c>
       <c r="D22">
-        <v>0.9536703875898224</v>
+        <v>0.9443593235562777</v>
       </c>
       <c r="E22">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F22">
         <v>1097.03775721248</v>
       </c>
       <c r="G22">
-        <v>0.001328405018674061</v>
+        <v>0.001344977024253513</v>
       </c>
       <c r="H22">
-        <v>0.001374506274744063</v>
+        <v>0.001361086422240311</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,22 +969,22 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>46.30583826615094</v>
+        <v>46.0030457287851</v>
       </c>
       <c r="D23">
-        <v>0.9462691552631551</v>
+        <v>0.9386196554677558</v>
       </c>
       <c r="E23">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F23">
         <v>1097.03775721248</v>
       </c>
       <c r="G23">
-        <v>0.0004451969944784029</v>
+        <v>0.001415950693399193</v>
       </c>
       <c r="H23">
-        <v>0.001363839024920408</v>
+        <v>0.001352813952102532</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -995,22 +995,22 @@
         <v>1040</v>
       </c>
       <c r="C24">
-        <v>46.3246139773164</v>
+        <v>46.05981556747943</v>
       </c>
       <c r="D24">
-        <v>0.9361775615650374</v>
+        <v>0.9310321604006846</v>
       </c>
       <c r="E24">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F24">
         <v>1097.03775721248</v>
       </c>
       <c r="G24">
-        <v>0.0007298288378545959</v>
+        <v>0.001388369679965384</v>
       </c>
       <c r="H24">
-        <v>0.001349294210442854</v>
+        <v>0.001341878245473708</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1021,22 +1021,22 @@
         <v>1080</v>
       </c>
       <c r="C25">
-        <v>46.44646850745901</v>
+        <v>46.10206985124108</v>
       </c>
       <c r="D25">
-        <v>0.9325661808947791</v>
+        <v>0.9257752627494941</v>
       </c>
       <c r="E25">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F25">
         <v>1097.03775721248</v>
       </c>
       <c r="G25">
-        <v>0.0008890717937374504</v>
+        <v>0.001053807169868914</v>
       </c>
       <c r="H25">
-        <v>0.001344089198882933</v>
+        <v>0.001334301582822464</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1047,22 +1047,22 @@
         <v>1120</v>
       </c>
       <c r="C26">
-        <v>46.43987140859164</v>
+        <v>46.09268225062987</v>
       </c>
       <c r="D26">
-        <v>0.92324391601441</v>
+        <v>0.9138622106057962</v>
       </c>
       <c r="E26">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F26">
         <v>1097.03775721248</v>
       </c>
       <c r="G26">
-        <v>-0.0004985291913563117</v>
+        <v>0.001469833910310214</v>
       </c>
       <c r="H26">
-        <v>0.001330653202820104</v>
+        <v>0.001317131536299107</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1073,22 +1073,22 @@
         <v>1160</v>
       </c>
       <c r="C27">
-        <v>46.34714133291124</v>
+        <v>46.17652601152575</v>
       </c>
       <c r="D27">
-        <v>0.9143713128558942</v>
+        <v>0.9103094572451083</v>
       </c>
       <c r="E27">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F27">
         <v>1097.03775721248</v>
       </c>
       <c r="G27">
-        <v>-0.000880991172898371</v>
+        <v>-0.0001186345323154647</v>
       </c>
       <c r="H27">
-        <v>0.001317865295306781</v>
+        <v>0.001312011023121356</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1099,22 +1099,22 @@
         <v>1200</v>
       </c>
       <c r="C28">
-        <v>46.39846165142841</v>
+        <v>46.13801733650257</v>
       </c>
       <c r="D28">
-        <v>0.9098739470745413</v>
+        <v>0.9057146530440099</v>
       </c>
       <c r="E28">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F28">
         <v>1097.03775721248</v>
       </c>
       <c r="G28">
-        <v>-0.001588240116113537</v>
+        <v>-0.0007596646234115934</v>
       </c>
       <c r="H28">
-        <v>0.001311383330922931</v>
+        <v>0.00130538862266957</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,22 +1125,22 @@
         <v>1240</v>
       </c>
       <c r="C29">
-        <v>46.39683944725313</v>
+        <v>46.1388816415712</v>
       </c>
       <c r="D29">
-        <v>0.9014482141224126</v>
+        <v>0.8995991512970344</v>
       </c>
       <c r="E29">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F29">
         <v>1097.03775721248</v>
       </c>
       <c r="G29">
-        <v>-0.003226410118232037</v>
+        <v>-0.001869682823900565</v>
       </c>
       <c r="H29">
-        <v>0.001299239488603063</v>
+        <v>0.001296574470910418</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1151,22 +1151,22 @@
         <v>1280</v>
       </c>
       <c r="C30">
-        <v>46.23140226968285</v>
+        <v>46.15942187751956</v>
       </c>
       <c r="D30">
-        <v>0.9010042357036148</v>
+        <v>0.8973987324298878</v>
       </c>
       <c r="E30">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F30">
         <v>1097.03775721248</v>
       </c>
       <c r="G30">
-        <v>-0.003347960359209967</v>
+        <v>-0.002571340405358624</v>
       </c>
       <c r="H30">
-        <v>0.001298599591285887</v>
+        <v>0.001293403050701386</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1177,22 +1177,22 @@
         <v>1320</v>
       </c>
       <c r="C31">
-        <v>46.1648796784872</v>
+        <v>45.98406420361462</v>
       </c>
       <c r="D31">
-        <v>0.8942585855796029</v>
+        <v>0.8887290206101301</v>
       </c>
       <c r="E31">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F31">
         <v>1097.03775721248</v>
       </c>
       <c r="G31">
-        <v>-0.003482632578204559</v>
+        <v>-0.003421188736184932</v>
       </c>
       <c r="H31">
-        <v>0.001288877219129492</v>
+        <v>0.001280907566463277</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1203,22 +1203,22 @@
         <v>1360</v>
       </c>
       <c r="C32">
-        <v>46.07049555873824</v>
+        <v>45.93826922773358</v>
       </c>
       <c r="D32">
-        <v>0.8924060659201617</v>
+        <v>0.8880932768084598</v>
       </c>
       <c r="E32">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F32">
         <v>1097.03775721248</v>
       </c>
       <c r="G32">
-        <v>-0.005536536244765156</v>
+        <v>-0.003898735754044269</v>
       </c>
       <c r="H32">
-        <v>0.001286207219170256</v>
+        <v>0.001279991281491135</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1229,22 +1229,22 @@
         <v>1400</v>
       </c>
       <c r="C33">
-        <v>45.93024288854188</v>
+        <v>45.80292059941699</v>
       </c>
       <c r="D33">
-        <v>0.892014867332081</v>
+        <v>0.887591698051663</v>
       </c>
       <c r="E33">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F33">
         <v>1097.03775721248</v>
       </c>
       <c r="G33">
-        <v>-0.006619207542168848</v>
+        <v>-0.004786958420717325</v>
       </c>
       <c r="H33">
-        <v>0.001285643392379591</v>
+        <v>0.00127926836594561</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1255,22 +1255,22 @@
         <v>1440</v>
       </c>
       <c r="C34">
-        <v>45.90419775111805</v>
+        <v>45.68126778577249</v>
       </c>
       <c r="D34">
-        <v>0.8889077811869214</v>
+        <v>0.8853530598564183</v>
       </c>
       <c r="E34">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F34">
         <v>1097.03775721248</v>
       </c>
       <c r="G34">
-        <v>-0.006383420045031851</v>
+        <v>-0.005920918604296599</v>
       </c>
       <c r="H34">
-        <v>0.001281165210548355</v>
+        <v>0.001276041860974619</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1281,22 +1281,22 @@
         <v>1480</v>
       </c>
       <c r="C35">
-        <v>45.78992012039851</v>
+        <v>45.62913581373616</v>
       </c>
       <c r="D35">
-        <v>0.8885992362794141</v>
+        <v>0.8801328944339959</v>
       </c>
       <c r="E35">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F35">
         <v>1097.03775721248</v>
       </c>
       <c r="G35">
-        <v>-0.006806309545434752</v>
+        <v>-0.005446302169130934</v>
       </c>
       <c r="H35">
-        <v>0.001280720510873364</v>
+        <v>0.001268518139758471</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1307,22 +1307,22 @@
         <v>1520</v>
       </c>
       <c r="C36">
-        <v>45.51261585226599</v>
+        <v>45.51421961585549</v>
       </c>
       <c r="D36">
-        <v>0.8839690579082692</v>
+        <v>0.8841972140136108</v>
       </c>
       <c r="E36">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F36">
         <v>1097.03775721248</v>
       </c>
       <c r="G36">
-        <v>-0.007109156439379927</v>
+        <v>-0.005913331755333528</v>
       </c>
       <c r="H36">
-        <v>0.001274047126329668</v>
+        <v>0.001274375963213453</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,22 +1333,22 @@
         <v>1560</v>
       </c>
       <c r="C37">
-        <v>45.33776624050611</v>
+        <v>45.37296829425643</v>
       </c>
       <c r="D37">
-        <v>0.8841443833327824</v>
+        <v>0.8792076689963928</v>
       </c>
       <c r="E37">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F37">
         <v>1097.03775721248</v>
       </c>
       <c r="G37">
-        <v>-0.006277747273256784</v>
+        <v>-0.005471086919508128</v>
       </c>
       <c r="H37">
-        <v>0.001274299819397684</v>
+        <v>0.001267184630627761</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,22 +1359,22 @@
         <v>1600</v>
       </c>
       <c r="C38">
-        <v>45.21005506247776</v>
+        <v>45.21207490083211</v>
       </c>
       <c r="D38">
-        <v>0.8838018040923258</v>
+        <v>0.8824350876559203</v>
       </c>
       <c r="E38">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F38">
         <v>1097.03775721248</v>
       </c>
       <c r="G38">
-        <v>-0.007382138619450318</v>
+        <v>-0.005108874292193244</v>
       </c>
       <c r="H38">
-        <v>0.001273806066711501</v>
+        <v>0.001271836245332877</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1385,22 +1385,22 @@
         <v>1640</v>
       </c>
       <c r="C39">
-        <v>45.07587015121764</v>
+        <v>45.11265585655367</v>
       </c>
       <c r="D39">
-        <v>0.8807158033505544</v>
+        <v>0.8781073495901632</v>
       </c>
       <c r="E39">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F39">
         <v>1097.03775721248</v>
       </c>
       <c r="G39">
-        <v>-0.007368498098900433</v>
+        <v>-0.005467088151116783</v>
       </c>
       <c r="H39">
-        <v>0.001269358274855293</v>
+        <v>0.00126559876202183</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1411,22 +1411,22 @@
         <v>1680</v>
       </c>
       <c r="C40">
-        <v>44.93303052843745</v>
+        <v>44.99213614688021</v>
       </c>
       <c r="D40">
-        <v>0.8766262230188755</v>
+        <v>0.87723310165678</v>
       </c>
       <c r="E40">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F40">
         <v>1097.03775721248</v>
       </c>
       <c r="G40">
-        <v>-0.006123185845505796</v>
+        <v>-0.004530507618679991</v>
       </c>
       <c r="H40">
-        <v>0.001263464043577787</v>
+        <v>0.001264338725760083</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1437,22 +1437,22 @@
         <v>1720</v>
       </c>
       <c r="C41">
-        <v>44.9258033248208</v>
+        <v>44.92754669229569</v>
       </c>
       <c r="D41">
-        <v>0.8827007984106221</v>
+        <v>0.8772736630527025</v>
       </c>
       <c r="E41">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F41">
         <v>1097.03775721248</v>
       </c>
       <c r="G41">
-        <v>-0.006025093656132574</v>
+        <v>-0.004628699438704587</v>
       </c>
       <c r="H41">
-        <v>0.001272219208990298</v>
+        <v>0.001264397186098092</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1463,22 +1463,22 @@
         <v>1760</v>
       </c>
       <c r="C42">
-        <v>44.723055572006</v>
+        <v>44.86384789902157</v>
       </c>
       <c r="D42">
-        <v>0.875408147002858</v>
+        <v>0.8758804369835936</v>
       </c>
       <c r="E42">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F42">
         <v>1097.03775721248</v>
       </c>
       <c r="G42">
-        <v>-0.006098583116478995</v>
+        <v>-0.00497774751640292</v>
       </c>
       <c r="H42">
-        <v>0.001261708454698319</v>
+        <v>0.001262389156909971</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1489,22 +1489,22 @@
         <v>1800</v>
       </c>
       <c r="C43">
-        <v>44.61096042457444</v>
+        <v>44.75440170955748</v>
       </c>
       <c r="D43">
-        <v>0.8796582833675293</v>
+        <v>0.8747828920332631</v>
       </c>
       <c r="E43">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F43">
         <v>1097.03775721248</v>
       </c>
       <c r="G43">
-        <v>-0.006448351118404405</v>
+        <v>-0.005509475263178088</v>
       </c>
       <c r="H43">
-        <v>0.001267834092211844</v>
+        <v>0.001260807287072474</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1515,22 +1515,22 @@
         <v>1840</v>
       </c>
       <c r="C44">
-        <v>44.53290611698506</v>
+        <v>44.78933839686669</v>
       </c>
       <c r="D44">
-        <v>0.8736014962565589</v>
+        <v>0.8808149780330655</v>
       </c>
       <c r="E44">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F44">
         <v>1097.03775721248</v>
       </c>
       <c r="G44">
-        <v>-0.006387720241831296</v>
+        <v>-0.004484649585399003</v>
       </c>
       <c r="H44">
-        <v>0.001259104564696727</v>
+        <v>0.001269501213364427</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1541,19 +1541,19 @@
         <v>1880</v>
       </c>
       <c r="C45">
-        <v>44.3737512555249</v>
+        <v>44.6323763840637</v>
       </c>
       <c r="D45">
-        <v>0.8763944610019778</v>
+        <v>0.8804641225148413</v>
       </c>
       <c r="E45">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F45">
         <v>1097.03775721248</v>
       </c>
       <c r="H45">
-        <v>0.001263130009564968</v>
+        <v>0.001268995532242727</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,19 +1564,19 @@
         <v>1920</v>
       </c>
       <c r="C46">
-        <v>44.23428176384112</v>
+        <v>44.41563529820764</v>
       </c>
       <c r="D46">
-        <v>0.8751641154920234</v>
+        <v>0.8775491617148559</v>
       </c>
       <c r="E46">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F46">
         <v>1097.03775721248</v>
       </c>
       <c r="H46">
-        <v>0.001261356736906467</v>
+        <v>0.001264794256873007</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1587,19 +1587,19 @@
         <v>1960</v>
       </c>
       <c r="C47">
-        <v>44.04413397227294</v>
+        <v>44.23113981444518</v>
       </c>
       <c r="D47">
-        <v>0.8703054070025449</v>
+        <v>0.8788014534730526</v>
       </c>
       <c r="E47">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F47">
         <v>1097.03775721248</v>
       </c>
       <c r="H47">
-        <v>0.001254353976421454</v>
+        <v>0.001266599160225204</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>43.91099528974444</v>
+        <v>44.27459221321637</v>
       </c>
       <c r="D48">
-        <v>0.8783960522591375</v>
+        <v>0.8781727775274943</v>
       </c>
       <c r="E48">
-        <v>222.9965082381523</v>
+        <v>229.0401023034101</v>
       </c>
       <c r="F48">
         <v>1097.03775721248</v>
       </c>
       <c r="H48">
-        <v>0.001266014863470721</v>
+        <v>0.001265693062014338</v>
       </c>
     </row>
   </sheetData>
